--- a/TEMPLATE/Application Data Requirements.xlsx
+++ b/TEMPLATE/Application Data Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\uob-app\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\reformat_app\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79851CA-B000-416B-9BD5-C44CA5C9CEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF01595C-B6B9-4C36-8833-5BECBB4177B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Name" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>ApplicationCode</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Additional access related attributes delimited with “#’</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,7 +595,7 @@
     <col min="14" max="14" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -635,9 +638,13 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
